--- a/StructureDefinition-DiagnosticReport-HPA.xlsx
+++ b/StructureDefinition-DiagnosticReport-HPA.xlsx
@@ -27,13 +27,13 @@
     <t>URL</t>
   </si>
   <si>
-    <t>https://etatunghpa.com/StructureDefinition/DiagnosticReport-HPA</t>
+    <t>https://twhpa.tsti.com/StructureDefinition/DiagnosticReport-HPA</t>
   </si>
   <si>
     <t>Version</t>
   </si>
   <si>
-    <t>0.2.0</t>
+    <t>0.2.1</t>
   </si>
   <si>
     <t>Name</t>
@@ -883,7 +883,7 @@
     <t>LOINC®為Regenstrief Institute, Inc.維護的檢驗事件描述代碼，可免費使用，可優先選用此代碼。</t>
   </si>
   <si>
-    <t>https://etatunghpa.com/ValueSet/loinc-diagnostic-code</t>
+    <t>https://twhpa.tsti.com/ValueSet/loinc-diagnostic-code</t>
   </si>
   <si>
     <t>DiagnosticReport.code.coding:LOINCObservationCode.id</t>
@@ -1182,7 +1182,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(https://etatunghpa.com/StructureDefinition/Patient-HPA)
+    <t xml:space="preserve">Reference(https://twhpa.tsti.com/StructureDefinition/Patient-HPA)
 </t>
   </si>
   <si>
@@ -1214,7 +1214,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(https://etatunghpa.com/StructureDefinition/Encounter-HPA)
+    <t xml:space="preserve">Reference(https://twhpa.tsti.com/StructureDefinition/Encounter-HPA)
 </t>
   </si>
   <si>
@@ -1316,7 +1316,7 @@
 ServicePractitionerDepartmentCompanyAuthorized byDirector</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(https://etatunghpa.com/StructureDefinition/Organization-HPA)
+    <t xml:space="preserve">Reference(https://twhpa.tsti.com/StructureDefinition/Organization-HPA)
 </t>
   </si>
   <si>
